--- a/REGULAR/OJT/PARRA, ANABELLE.xlsx
+++ b/REGULAR/OJT/PARRA, ANABELLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39412047-8246-4776-848C-7F40ED778867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B26F87-1EB1-4B3C-84F3-C7F4E1831D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -30,23 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
   <si>
     <t>PERIOD</t>
   </si>
@@ -616,6 +605,18 @@
   </si>
   <si>
     <t>07/15-19/2019</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -852,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,6 +989,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,10 +1031,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3000,7 +3004,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3017,7 +3021,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K321" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K373" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3383,7 +3387,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3395,87 +3399,87 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K321"/>
+  <dimension ref="A2:K373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1500" topLeftCell="A310" activePane="bottomLeft"/>
+      <pane ySplit="1512" topLeftCell="A354" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E318" sqref="E318"/>
+      <selection pane="bottomLeft" activeCell="C359" sqref="C359:C361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3483,7 +3487,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3496,24 +3500,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3557,7 +3561,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>186</v>
+        <v>219.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3567,13 +3571,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82</v>
+        <v>130.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3594,7 +3598,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36526</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36557</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36586</v>
       </c>
@@ -3654,7 +3658,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36617</v>
       </c>
@@ -3674,7 +3678,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3714,7 +3718,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -3782,7 +3786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36770</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36800</v>
       </c>
@@ -3828,7 +3832,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36831</v>
       </c>
@@ -3850,11 +3854,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="60">
+      <c r="K22" s="48">
         <v>36718</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3874,7 +3878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -3896,7 +3900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36861</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -3942,8 +3946,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="20"/>
@@ -3960,7 +3964,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36892</v>
       </c>
@@ -3984,7 +3988,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -4006,7 +4010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36923</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36951</v>
       </c>
@@ -4048,11 +4052,11 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="60">
+      <c r="K31" s="48">
         <v>36894</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4070,11 +4074,11 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="60">
+      <c r="K32" s="48">
         <v>37106</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4094,7 +4098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4116,7 +4120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -4138,11 +4142,11 @@
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="60">
+      <c r="K35" s="48">
         <v>37046</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>67</v>
@@ -4164,7 +4168,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>57</v>
@@ -4186,7 +4190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37012</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37043</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37073</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37104</v>
       </c>
@@ -4280,11 +4284,11 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="60">
+      <c r="K41" s="48">
         <v>37050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -4306,7 +4310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37135</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>54</v>
@@ -4354,7 +4358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37165</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37196</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37226</v>
       </c>
@@ -4424,8 +4428,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="20"/>
@@ -4442,7 +4446,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37257</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37288</v>
       </c>
@@ -4488,7 +4492,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37316</v>
       </c>
@@ -4508,7 +4512,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37347</v>
       </c>
@@ -4528,7 +4532,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37377</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37408</v>
       </c>
@@ -4574,7 +4578,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37438</v>
       </c>
@@ -4594,7 +4598,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37469</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>84</v>
@@ -4642,7 +4646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -4662,7 +4666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37500</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37530</v>
       </c>
@@ -4702,7 +4706,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37561</v>
       </c>
@@ -4722,7 +4726,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37591</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>65</v>
@@ -4768,8 +4772,8 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="20"/>
@@ -4786,7 +4790,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37622</v>
       </c>
@@ -4806,7 +4810,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37653</v>
       </c>
@@ -4826,7 +4830,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37681</v>
       </c>
@@ -4846,7 +4850,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37712</v>
       </c>
@@ -4866,7 +4870,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37742</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -4914,7 +4918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -4934,7 +4938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37773</v>
       </c>
@@ -4954,7 +4958,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37803</v>
       </c>
@@ -4974,7 +4978,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37834</v>
       </c>
@@ -4994,7 +4998,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37865</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>77</v>
@@ -5042,7 +5046,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37895</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37926</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>57</v>
@@ -5108,7 +5112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37956</v>
       </c>
@@ -5128,8 +5132,8 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B81" s="20"/>
@@ -5146,7 +5150,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37987</v>
       </c>
@@ -5166,7 +5170,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>38018</v>
       </c>
@@ -5186,7 +5190,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38047</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38078</v>
       </c>
@@ -5230,7 +5234,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38108</v>
       </c>
@@ -5254,7 +5258,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>57</v>
@@ -5274,7 +5278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>57</v>
@@ -5320,7 +5324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38169</v>
       </c>
@@ -5340,7 +5344,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38200</v>
       </c>
@@ -5360,7 +5364,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38231</v>
       </c>
@@ -5380,7 +5384,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38261</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5428,7 +5432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5444,7 +5448,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38292</v>
       </c>
@@ -5466,11 +5470,11 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="60">
+      <c r="K96" s="48">
         <v>38028</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5492,7 +5496,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>54</v>
@@ -5514,7 +5518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38322</v>
       </c>
@@ -5534,8 +5538,8 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B100" s="20"/>
@@ -5552,7 +5556,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38353</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38384</v>
       </c>
@@ -5596,7 +5600,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38412</v>
       </c>
@@ -5616,7 +5620,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38443</v>
       </c>
@@ -5636,7 +5640,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38473</v>
       </c>
@@ -5656,7 +5660,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38504</v>
       </c>
@@ -5676,7 +5680,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38534</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38565</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38596</v>
       </c>
@@ -5748,7 +5752,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38626</v>
       </c>
@@ -5774,7 +5778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>57</v>
@@ -5794,7 +5798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38657</v>
       </c>
@@ -5814,7 +5818,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38687</v>
       </c>
@@ -5838,8 +5842,8 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B114" s="20"/>
@@ -5856,7 +5860,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38718</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38749</v>
       </c>
@@ -5896,7 +5900,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38777</v>
       </c>
@@ -5916,7 +5920,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38808</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38838</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38869</v>
       </c>
@@ -5992,7 +5996,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38899</v>
       </c>
@@ -6012,7 +6016,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>38930</v>
       </c>
@@ -6032,7 +6036,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38961</v>
       </c>
@@ -6052,7 +6056,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>38991</v>
       </c>
@@ -6072,7 +6076,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39022</v>
       </c>
@@ -6092,7 +6096,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39052</v>
       </c>
@@ -6112,8 +6116,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B127" s="20"/>
@@ -6130,7 +6134,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39083</v>
       </c>
@@ -6150,7 +6154,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39114</v>
       </c>
@@ -6170,7 +6174,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>39142</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6216,7 +6220,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6236,7 +6240,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>55</v>
@@ -6258,7 +6262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>39173</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39203</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6332,7 +6336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>39234</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>116</v>
@@ -6380,7 +6384,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39264</v>
       </c>
@@ -6400,7 +6404,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39295</v>
       </c>
@@ -6420,7 +6424,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39326</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39356</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39387</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>108</v>
@@ -6520,7 +6524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39417</v>
       </c>
@@ -6546,7 +6550,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>67</v>
@@ -6568,7 +6572,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>55</v>
@@ -6590,8 +6594,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="59" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B148" s="20"/>
@@ -6608,7 +6612,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39448</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39479</v>
       </c>
@@ -6652,7 +6656,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39508</v>
       </c>
@@ -6672,7 +6676,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39539</v>
       </c>
@@ -6692,7 +6696,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39569</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>128</v>
@@ -6738,7 +6742,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>55</v>
@@ -6760,7 +6764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39600</v>
       </c>
@@ -6780,7 +6784,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39630</v>
       </c>
@@ -6800,7 +6804,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39661</v>
       </c>
@@ -6820,7 +6824,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>39692</v>
       </c>
@@ -6846,7 +6850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>39722</v>
       </c>
@@ -6872,7 +6876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>39753</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>67</v>
@@ -6920,7 +6924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>39783</v>
       </c>
@@ -6946,8 +6950,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="59" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B164" s="20"/>
@@ -6964,7 +6968,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>39814</v>
       </c>
@@ -6984,7 +6988,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>39845</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>39873</v>
       </c>
@@ -7030,7 +7034,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>39904</v>
       </c>
@@ -7050,7 +7054,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>39934</v>
       </c>
@@ -7076,7 +7080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>39965</v>
       </c>
@@ -7096,7 +7100,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>39995</v>
       </c>
@@ -7116,7 +7120,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40026</v>
       </c>
@@ -7138,11 +7142,11 @@
       </c>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="60">
+      <c r="K172" s="48">
         <v>39911</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40057</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7190,7 +7194,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>92</v>
@@ -7212,7 +7216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>40087</v>
       </c>
@@ -7232,7 +7236,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40118</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40148</v>
       </c>
@@ -7284,8 +7288,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="59" t="s">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="47" t="s">
         <v>146</v>
       </c>
       <c r="B179" s="20"/>
@@ -7302,7 +7306,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40179</v>
       </c>
@@ -7322,7 +7326,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40210</v>
       </c>
@@ -7342,7 +7346,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40238</v>
       </c>
@@ -7364,11 +7368,11 @@
       </c>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="60">
+      <c r="K182" s="48">
         <v>40271</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40269</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40299</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40330</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40360</v>
       </c>
@@ -7466,7 +7470,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40391</v>
       </c>
@@ -7486,7 +7490,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>40422</v>
       </c>
@@ -7506,7 +7510,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40452</v>
       </c>
@@ -7526,7 +7530,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40483</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>40513</v>
       </c>
@@ -7576,8 +7580,8 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="59" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B192" s="20"/>
@@ -7594,7 +7598,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40544</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>40575</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>40603</v>
       </c>
@@ -7666,7 +7670,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>40634</v>
       </c>
@@ -7686,7 +7690,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40664</v>
       </c>
@@ -7706,7 +7710,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>40695</v>
       </c>
@@ -7726,7 +7730,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40725</v>
       </c>
@@ -7746,7 +7750,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>40756</v>
       </c>
@@ -7772,7 +7776,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>112</v>
@@ -7792,7 +7796,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>40787</v>
       </c>
@@ -7812,7 +7816,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>40817</v>
       </c>
@@ -7832,7 +7836,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>40848</v>
       </c>
@@ -7852,7 +7856,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>40878</v>
       </c>
@@ -7872,8 +7876,8 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="59" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B206" s="20"/>
@@ -7890,7 +7894,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>40909</v>
       </c>
@@ -7910,7 +7914,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>40940</v>
       </c>
@@ -7930,7 +7934,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>40969</v>
       </c>
@@ -7950,7 +7954,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41000</v>
       </c>
@@ -7970,7 +7974,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41030</v>
       </c>
@@ -7990,7 +7994,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>41061</v>
       </c>
@@ -8010,7 +8014,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41091</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41122</v>
       </c>
@@ -8050,7 +8054,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41153</v>
       </c>
@@ -8074,7 +8078,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41183</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>81</v>
@@ -8122,7 +8126,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41214</v>
       </c>
@@ -8142,7 +8146,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41244</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>92</v>
@@ -8190,8 +8194,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="59" t="s">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B221" s="20"/>
@@ -8208,7 +8212,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>41275</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>55</v>
@@ -8252,7 +8256,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>41306</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>115</v>
@@ -8296,7 +8300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>41334</v>
       </c>
@@ -8316,7 +8320,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>41365</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>92</v>
@@ -8364,7 +8368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>41395</v>
       </c>
@@ -8384,7 +8388,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>41426</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>41456</v>
       </c>
@@ -8430,7 +8434,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>41487</v>
       </c>
@@ -8450,7 +8454,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>41518</v>
       </c>
@@ -8470,7 +8474,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -8490,7 +8494,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>41579</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>41609</v>
       </c>
@@ -8536,8 +8540,8 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="59" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B237" s="20"/>
@@ -8554,7 +8558,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>41640</v>
       </c>
@@ -8574,7 +8578,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>41671</v>
       </c>
@@ -8594,7 +8598,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>41699</v>
       </c>
@@ -8614,7 +8618,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>41730</v>
       </c>
@@ -8634,7 +8638,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>41760</v>
       </c>
@@ -8654,7 +8658,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>41791</v>
       </c>
@@ -8674,7 +8678,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>41821</v>
       </c>
@@ -8694,7 +8698,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41852</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>112</v>
@@ -8740,7 +8744,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>41883</v>
       </c>
@@ -8760,7 +8764,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>41913</v>
       </c>
@@ -8780,7 +8784,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>41944</v>
       </c>
@@ -8800,7 +8804,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>41974</v>
       </c>
@@ -8820,8 +8824,8 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="59" t="s">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B251" s="20"/>
@@ -8838,7 +8842,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>42005</v>
       </c>
@@ -8862,7 +8866,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>42036</v>
       </c>
@@ -8882,7 +8886,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42064</v>
       </c>
@@ -8902,7 +8906,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>42095</v>
       </c>
@@ -8922,7 +8926,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>42125</v>
       </c>
@@ -8942,7 +8946,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42156</v>
       </c>
@@ -8962,7 +8966,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>42186</v>
       </c>
@@ -8982,7 +8986,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>42217</v>
       </c>
@@ -9002,7 +9006,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>42248</v>
       </c>
@@ -9022,7 +9026,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>42278</v>
       </c>
@@ -9042,7 +9046,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>42309</v>
       </c>
@@ -9062,7 +9066,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>42339</v>
       </c>
@@ -9082,8 +9086,8 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="59" t="s">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="47" t="s">
         <v>147</v>
       </c>
       <c r="B264" s="20"/>
@@ -9100,7 +9104,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>42370</v>
       </c>
@@ -9124,7 +9128,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>42401</v>
       </c>
@@ -9144,7 +9148,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>42430</v>
       </c>
@@ -9164,7 +9168,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>42461</v>
       </c>
@@ -9184,7 +9188,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>42491</v>
       </c>
@@ -9204,7 +9208,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>42522</v>
       </c>
@@ -9224,7 +9228,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>42552</v>
       </c>
@@ -9244,7 +9248,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>42583</v>
       </c>
@@ -9264,7 +9268,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>42614</v>
       </c>
@@ -9284,7 +9288,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>42644</v>
       </c>
@@ -9304,7 +9308,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>42675</v>
       </c>
@@ -9324,7 +9328,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>42705</v>
       </c>
@@ -9344,8 +9348,8 @@
       <c r="J276" s="12"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="59" t="s">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="47" t="s">
         <v>181</v>
       </c>
       <c r="B277" s="20"/>
@@ -9362,7 +9366,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>42736</v>
       </c>
@@ -9386,7 +9390,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>42767</v>
       </c>
@@ -9406,7 +9410,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>42795</v>
       </c>
@@ -9426,7 +9430,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>42826</v>
       </c>
@@ -9446,7 +9450,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>42856</v>
       </c>
@@ -9466,7 +9470,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>42887</v>
       </c>
@@ -9486,7 +9490,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>42917</v>
       </c>
@@ -9506,7 +9510,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>42948</v>
       </c>
@@ -9526,7 +9530,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>42979</v>
       </c>
@@ -9546,7 +9550,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>43009</v>
       </c>
@@ -9566,7 +9570,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>43040</v>
       </c>
@@ -9586,7 +9590,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>43070</v>
       </c>
@@ -9606,8 +9610,8 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="59" t="s">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B290" s="20"/>
@@ -9624,7 +9628,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>43101</v>
       </c>
@@ -9650,7 +9654,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>43132</v>
       </c>
@@ -9670,7 +9674,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>43160</v>
       </c>
@@ -9690,7 +9694,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43191</v>
       </c>
@@ -9710,7 +9714,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>43221</v>
       </c>
@@ -9730,7 +9734,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>43252</v>
       </c>
@@ -9756,7 +9760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43282</v>
       </c>
@@ -9776,7 +9780,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43313</v>
       </c>
@@ -9796,7 +9800,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>43344</v>
       </c>
@@ -9816,7 +9820,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>43374</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>43405</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43435</v>
       </c>
@@ -9888,8 +9892,8 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="59" t="s">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B303" s="20"/>
@@ -9906,7 +9910,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43466</v>
       </c>
@@ -9932,7 +9936,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>43497</v>
       </c>
@@ -9952,7 +9956,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>43525</v>
       </c>
@@ -9972,7 +9976,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>43556</v>
       </c>
@@ -9992,7 +9996,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>43586</v>
       </c>
@@ -10012,7 +10016,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>43617</v>
       </c>
@@ -10032,7 +10036,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43647</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>43678</v>
       </c>
@@ -10078,7 +10082,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43709</v>
       </c>
@@ -10098,7 +10102,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>43739</v>
       </c>
@@ -10118,7 +10122,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>43770</v>
       </c>
@@ -10138,7 +10142,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>43800</v>
       </c>
@@ -10158,8 +10162,10 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="40"/>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="47" t="s">
+        <v>191</v>
+      </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
       <c r="D316" s="39"/>
@@ -10174,85 +10180,1097 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40"/>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40">
+        <v>43831</v>
+      </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="40">
+        <v>43862</v>
+      </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>43891</v>
+      </c>
       <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="40">
+        <v>43922</v>
+      </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="40"/>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40">
+        <v>43952</v>
+      </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H322" s="39"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B328" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D328" s="39">
+        <v>5</v>
+      </c>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D341" s="39">
+        <v>5</v>
+      </c>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B354" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39">
+        <v>5</v>
+      </c>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="40"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="61"/>
+      <c r="B373" s="15"/>
+      <c r="C373" s="41"/>
+      <c r="D373" s="42"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="15"/>
+      <c r="G373" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="42"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="12"/>
+      <c r="K373" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10277,7 +11295,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -10303,34 +11321,34 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10359,7 +11377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -10379,17 +11397,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10403,14 +11421,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10437,7 +11455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10463,7 +11481,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10489,7 +11507,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10515,7 +11533,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10541,7 +11559,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10567,7 +11585,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10593,7 +11611,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10619,7 +11637,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10639,7 +11657,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10659,7 +11677,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10679,7 +11697,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10700,7 +11718,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10721,7 +11739,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10742,7 +11760,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10763,7 +11781,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10784,7 +11802,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10805,7 +11823,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10826,7 +11844,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10847,7 +11865,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10868,7 +11886,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10889,7 +11907,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10910,7 +11928,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10931,7 +11949,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10952,7 +11970,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10973,7 +11991,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10994,7 +12012,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11015,7 +12033,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11036,7 +12054,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11057,7 +12075,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11078,7 +12096,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11099,7 +12117,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11108,7 +12126,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11117,7 +12135,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11126,7 +12144,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11135,7 +12153,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11144,7 +12162,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11153,7 +12171,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11162,7 +12180,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11171,7 +12189,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11180,7 +12198,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11189,7 +12207,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11198,7 +12216,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11207,7 +12225,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11216,7 +12234,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11225,7 +12243,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11234,7 +12252,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11243,7 +12261,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11252,7 +12270,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11261,7 +12279,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11270,7 +12288,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11279,7 +12297,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11288,7 +12306,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11297,7 +12315,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11306,7 +12324,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11315,7 +12333,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11324,7 +12342,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11333,7 +12351,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11342,7 +12360,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11351,7 +12369,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11360,7 +12378,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PARRA, ANABELLE.xlsx
+++ b/REGULAR/OJT/PARRA, ANABELLE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B26F87-1EB1-4B3C-84F3-C7F4E1831D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
   <si>
     <t>PERIOD</t>
   </si>
@@ -617,12 +616,21 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>4/24-26/2023</t>
+  </si>
+  <si>
+    <t>VL(24-0-0)</t>
+  </si>
+  <si>
+    <t>4/27-5/31/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -995,6 +1003,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,9 +1042,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1061,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1128,7 +1135,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1196,7 +1202,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1438,7 +1443,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1486,7 +1490,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1533,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1597,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1657,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1723,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1786,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1884,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1943,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2008,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2051,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2126,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2312,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2378,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2436,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2502,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2558,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2633,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,7 +2676,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2742,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2798,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2896,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2959,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,25 +3025,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K373" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K374" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3051,13 +3055,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3066,14 +3070,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3377,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3387,7 +3391,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3395,91 +3399,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K373"/>
+  <dimension ref="A2:K374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1512" topLeftCell="A354" activePane="bottomLeft"/>
+      <pane ySplit="1515" topLeftCell="A354" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="C359" sqref="C359:C361"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3487,7 +3491,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3500,24 +3504,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3561,7 +3565,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>219.75</v>
+        <v>195.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3576,7 +3580,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3598,7 +3602,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36526</v>
       </c>
@@ -3618,7 +3622,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36557</v>
       </c>
@@ -3638,7 +3642,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36586</v>
       </c>
@@ -3658,7 +3662,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36617</v>
       </c>
@@ -3678,7 +3682,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3698,7 +3702,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3718,7 +3722,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -3786,7 +3790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36770</v>
       </c>
@@ -3812,7 +3816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36800</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36831</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>36718</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3878,7 +3882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -3900,7 +3904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36861</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -3946,7 +3950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
@@ -3964,7 +3968,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36892</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -4010,7 +4014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36923</v>
       </c>
@@ -4030,7 +4034,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36951</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>36894</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4078,7 +4082,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4098,7 +4102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4120,7 +4124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>37046</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>67</v>
@@ -4168,7 +4172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>57</v>
@@ -4190,7 +4194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37012</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>37043</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37073</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37104</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -4310,7 +4314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37135</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>54</v>
@@ -4358,7 +4362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37165</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37196</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37226</v>
       </c>
@@ -4428,7 +4432,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>45</v>
       </c>
@@ -4446,7 +4450,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37257</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37288</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37316</v>
       </c>
@@ -4512,7 +4516,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37347</v>
       </c>
@@ -4532,7 +4536,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37377</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37408</v>
       </c>
@@ -4578,7 +4582,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37438</v>
       </c>
@@ -4598,7 +4602,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37469</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>84</v>
@@ -4646,7 +4650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -4666,7 +4670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37500</v>
       </c>
@@ -4686,7 +4690,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37530</v>
       </c>
@@ -4706,7 +4710,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37561</v>
       </c>
@@ -4726,7 +4730,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37591</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>65</v>
@@ -4772,7 +4776,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>52</v>
       </c>
@@ -4790,7 +4794,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37622</v>
       </c>
@@ -4810,7 +4814,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37653</v>
       </c>
@@ -4830,7 +4834,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37681</v>
       </c>
@@ -4850,7 +4854,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37712</v>
       </c>
@@ -4870,7 +4874,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37742</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -4918,7 +4922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -4938,7 +4942,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37773</v>
       </c>
@@ -4958,7 +4962,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37803</v>
       </c>
@@ -4978,7 +4982,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37834</v>
       </c>
@@ -4998,7 +5002,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37865</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>77</v>
@@ -5046,7 +5050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37895</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37926</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>57</v>
@@ -5112,7 +5116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37956</v>
       </c>
@@ -5132,7 +5136,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>51</v>
       </c>
@@ -5150,7 +5154,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37987</v>
       </c>
@@ -5170,7 +5174,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38018</v>
       </c>
@@ -5190,7 +5194,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>38047</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38078</v>
       </c>
@@ -5234,7 +5238,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38108</v>
       </c>
@@ -5258,7 +5262,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>57</v>
@@ -5278,7 +5282,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>57</v>
@@ -5324,7 +5328,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38169</v>
       </c>
@@ -5344,7 +5348,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38200</v>
       </c>
@@ -5364,7 +5368,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38231</v>
       </c>
@@ -5384,7 +5388,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38261</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5432,7 +5436,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5448,7 +5452,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38292</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5496,7 +5500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>54</v>
@@ -5518,7 +5522,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38322</v>
       </c>
@@ -5538,7 +5542,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>50</v>
       </c>
@@ -5556,7 +5560,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38353</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38384</v>
       </c>
@@ -5600,7 +5604,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38412</v>
       </c>
@@ -5620,7 +5624,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38443</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38473</v>
       </c>
@@ -5660,7 +5664,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38504</v>
       </c>
@@ -5680,7 +5684,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38534</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38565</v>
       </c>
@@ -5732,7 +5736,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>38596</v>
       </c>
@@ -5752,7 +5756,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38626</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>57</v>
@@ -5798,7 +5802,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38657</v>
       </c>
@@ -5818,7 +5822,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38687</v>
       </c>
@@ -5842,7 +5846,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>49</v>
       </c>
@@ -5860,7 +5864,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38718</v>
       </c>
@@ -5880,7 +5884,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38749</v>
       </c>
@@ -5900,7 +5904,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38777</v>
       </c>
@@ -5920,7 +5924,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38808</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38838</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38869</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38899</v>
       </c>
@@ -6016,7 +6020,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38930</v>
       </c>
@@ -6036,7 +6040,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38961</v>
       </c>
@@ -6056,7 +6060,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38991</v>
       </c>
@@ -6076,7 +6080,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39022</v>
       </c>
@@ -6096,7 +6100,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39052</v>
       </c>
@@ -6116,7 +6120,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>47</v>
       </c>
@@ -6134,7 +6138,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39083</v>
       </c>
@@ -6154,7 +6158,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39114</v>
       </c>
@@ -6174,7 +6178,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39142</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6220,7 +6224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6240,7 +6244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>55</v>
@@ -6262,7 +6266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39173</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39203</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6336,7 +6340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39234</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>116</v>
@@ -6384,7 +6388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39264</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39295</v>
       </c>
@@ -6424,7 +6428,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39326</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39356</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39387</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>108</v>
@@ -6524,7 +6528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39417</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>67</v>
@@ -6572,7 +6576,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>55</v>
@@ -6594,7 +6598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
         <v>48</v>
       </c>
@@ -6612,7 +6616,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39448</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39479</v>
       </c>
@@ -6656,7 +6660,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39508</v>
       </c>
@@ -6676,7 +6680,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39539</v>
       </c>
@@ -6696,7 +6700,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39569</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>128</v>
@@ -6742,7 +6746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>55</v>
@@ -6764,7 +6768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39600</v>
       </c>
@@ -6784,7 +6788,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39630</v>
       </c>
@@ -6804,7 +6808,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39661</v>
       </c>
@@ -6824,7 +6828,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39692</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39722</v>
       </c>
@@ -6876,7 +6880,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39753</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>67</v>
@@ -6924,7 +6928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39783</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>46</v>
       </c>
@@ -6968,7 +6972,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39814</v>
       </c>
@@ -6988,7 +6992,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>39845</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39873</v>
       </c>
@@ -7034,7 +7038,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39904</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39934</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39965</v>
       </c>
@@ -7100,7 +7104,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39995</v>
       </c>
@@ -7120,7 +7124,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40026</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40057</v>
       </c>
@@ -7172,7 +7176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7194,7 +7198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>92</v>
@@ -7216,7 +7220,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40087</v>
       </c>
@@ -7236,7 +7240,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40118</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40148</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>146</v>
       </c>
@@ -7306,7 +7310,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40179</v>
       </c>
@@ -7326,7 +7330,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40210</v>
       </c>
@@ -7346,7 +7350,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40238</v>
       </c>
@@ -7372,7 +7376,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40269</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40299</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40330</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40360</v>
       </c>
@@ -7470,7 +7474,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40391</v>
       </c>
@@ -7490,7 +7494,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40422</v>
       </c>
@@ -7510,7 +7514,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40452</v>
       </c>
@@ -7530,7 +7534,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40483</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40513</v>
       </c>
@@ -7580,7 +7584,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="47" t="s">
         <v>152</v>
       </c>
@@ -7598,7 +7602,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40544</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40575</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40603</v>
       </c>
@@ -7670,7 +7674,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40634</v>
       </c>
@@ -7690,7 +7694,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40664</v>
       </c>
@@ -7710,7 +7714,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40695</v>
       </c>
@@ -7730,7 +7734,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40725</v>
       </c>
@@ -7750,7 +7754,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40756</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>112</v>
@@ -7796,7 +7800,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40787</v>
       </c>
@@ -7816,7 +7820,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40817</v>
       </c>
@@ -7836,7 +7840,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40848</v>
       </c>
@@ -7856,7 +7860,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40878</v>
       </c>
@@ -7876,7 +7880,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>151</v>
       </c>
@@ -7894,7 +7898,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40909</v>
       </c>
@@ -7914,7 +7918,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40940</v>
       </c>
@@ -7934,7 +7938,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40969</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41000</v>
       </c>
@@ -7974,7 +7978,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41030</v>
       </c>
@@ -7994,7 +7998,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41061</v>
       </c>
@@ -8014,7 +8018,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41091</v>
       </c>
@@ -8034,7 +8038,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41122</v>
       </c>
@@ -8054,7 +8058,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41153</v>
       </c>
@@ -8078,7 +8082,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41183</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>81</v>
@@ -8126,7 +8130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41214</v>
       </c>
@@ -8146,7 +8150,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41244</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>92</v>
@@ -8194,7 +8198,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="47" t="s">
         <v>150</v>
       </c>
@@ -8212,7 +8216,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41275</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>55</v>
@@ -8256,7 +8260,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41306</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>115</v>
@@ -8300,7 +8304,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41334</v>
       </c>
@@ -8320,7 +8324,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41365</v>
       </c>
@@ -8346,7 +8350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>92</v>
@@ -8368,7 +8372,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41395</v>
       </c>
@@ -8388,7 +8392,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41426</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>41456</v>
       </c>
@@ -8434,7 +8438,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41487</v>
       </c>
@@ -8454,7 +8458,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41518</v>
       </c>
@@ -8474,7 +8478,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41548</v>
       </c>
@@ -8494,7 +8498,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41579</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41609</v>
       </c>
@@ -8540,7 +8544,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="47" t="s">
         <v>149</v>
       </c>
@@ -8558,7 +8562,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41640</v>
       </c>
@@ -8578,7 +8582,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41671</v>
       </c>
@@ -8598,7 +8602,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41699</v>
       </c>
@@ -8618,7 +8622,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41730</v>
       </c>
@@ -8638,7 +8642,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41760</v>
       </c>
@@ -8658,7 +8662,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41791</v>
       </c>
@@ -8678,7 +8682,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41821</v>
       </c>
@@ -8698,7 +8702,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41852</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>112</v>
@@ -8744,7 +8748,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41883</v>
       </c>
@@ -8764,7 +8768,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41913</v>
       </c>
@@ -8784,7 +8788,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41944</v>
       </c>
@@ -8804,7 +8808,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41974</v>
       </c>
@@ -8824,7 +8828,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="47" t="s">
         <v>148</v>
       </c>
@@ -8842,7 +8846,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>42005</v>
       </c>
@@ -8866,7 +8870,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42036</v>
       </c>
@@ -8886,7 +8890,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42064</v>
       </c>
@@ -8906,7 +8910,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>42095</v>
       </c>
@@ -8926,7 +8930,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42125</v>
       </c>
@@ -8946,7 +8950,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42156</v>
       </c>
@@ -8966,7 +8970,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42186</v>
       </c>
@@ -8986,7 +8990,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42217</v>
       </c>
@@ -9006,7 +9010,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42248</v>
       </c>
@@ -9026,7 +9030,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42278</v>
       </c>
@@ -9046,7 +9050,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42309</v>
       </c>
@@ -9066,7 +9070,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42339</v>
       </c>
@@ -9086,7 +9090,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="47" t="s">
         <v>147</v>
       </c>
@@ -9104,7 +9108,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42370</v>
       </c>
@@ -9128,7 +9132,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42401</v>
       </c>
@@ -9148,7 +9152,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42430</v>
       </c>
@@ -9168,7 +9172,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42461</v>
       </c>
@@ -9188,7 +9192,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42491</v>
       </c>
@@ -9208,7 +9212,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42522</v>
       </c>
@@ -9228,7 +9232,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42552</v>
       </c>
@@ -9248,7 +9252,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42583</v>
       </c>
@@ -9268,7 +9272,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42614</v>
       </c>
@@ -9288,7 +9292,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42644</v>
       </c>
@@ -9308,7 +9312,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42675</v>
       </c>
@@ -9328,7 +9332,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42705</v>
       </c>
@@ -9348,7 +9352,7 @@
       <c r="J276" s="12"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="47" t="s">
         <v>181</v>
       </c>
@@ -9366,7 +9370,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42736</v>
       </c>
@@ -9390,7 +9394,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42767</v>
       </c>
@@ -9410,7 +9414,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42795</v>
       </c>
@@ -9430,7 +9434,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42826</v>
       </c>
@@ -9450,7 +9454,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42856</v>
       </c>
@@ -9470,7 +9474,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42887</v>
       </c>
@@ -9490,7 +9494,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42917</v>
       </c>
@@ -9510,7 +9514,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42948</v>
       </c>
@@ -9530,7 +9534,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42979</v>
       </c>
@@ -9550,7 +9554,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43009</v>
       </c>
@@ -9570,7 +9574,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43040</v>
       </c>
@@ -9590,7 +9594,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43070</v>
       </c>
@@ -9610,7 +9614,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="47" t="s">
         <v>182</v>
       </c>
@@ -9628,7 +9632,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43101</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43132</v>
       </c>
@@ -9674,7 +9678,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43160</v>
       </c>
@@ -9694,7 +9698,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43191</v>
       </c>
@@ -9714,7 +9718,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43221</v>
       </c>
@@ -9734,7 +9738,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43252</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43282</v>
       </c>
@@ -9780,7 +9784,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43313</v>
       </c>
@@ -9800,7 +9804,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43344</v>
       </c>
@@ -9820,7 +9824,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43374</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43405</v>
       </c>
@@ -9872,7 +9876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43435</v>
       </c>
@@ -9892,7 +9896,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
         <v>187</v>
       </c>
@@ -9910,7 +9914,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43466</v>
       </c>
@@ -9936,7 +9940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43497</v>
       </c>
@@ -9956,7 +9960,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43525</v>
       </c>
@@ -9976,7 +9980,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43556</v>
       </c>
@@ -9996,7 +10000,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43586</v>
       </c>
@@ -10016,7 +10020,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43617</v>
       </c>
@@ -10036,7 +10040,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43647</v>
       </c>
@@ -10062,7 +10066,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43678</v>
       </c>
@@ -10082,7 +10086,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43709</v>
       </c>
@@ -10102,7 +10106,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43739</v>
       </c>
@@ -10122,7 +10126,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43770</v>
       </c>
@@ -10142,7 +10146,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43800</v>
       </c>
@@ -10162,7 +10166,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="47" t="s">
         <v>191</v>
       </c>
@@ -10180,7 +10184,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43831</v>
       </c>
@@ -10200,7 +10204,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43862</v>
       </c>
@@ -10220,7 +10224,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43891</v>
       </c>
@@ -10240,7 +10244,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43922</v>
       </c>
@@ -10260,7 +10264,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43952</v>
       </c>
@@ -10280,7 +10284,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43983</v>
       </c>
@@ -10300,7 +10304,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44013</v>
       </c>
@@ -10320,7 +10324,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44044</v>
       </c>
@@ -10340,7 +10344,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44075</v>
       </c>
@@ -10360,7 +10364,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44105</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>44136</v>
       </c>
@@ -10400,7 +10404,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44166</v>
       </c>
@@ -10424,7 +10428,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="47" t="s">
         <v>192</v>
       </c>
@@ -10442,7 +10446,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44197</v>
       </c>
@@ -10462,7 +10466,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44228</v>
       </c>
@@ -10482,7 +10486,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44256</v>
       </c>
@@ -10502,7 +10506,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44287</v>
       </c>
@@ -10522,7 +10526,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44317</v>
       </c>
@@ -10542,7 +10546,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44348</v>
       </c>
@@ -10562,7 +10566,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44378</v>
       </c>
@@ -10582,7 +10586,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44409</v>
       </c>
@@ -10602,7 +10606,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44440</v>
       </c>
@@ -10622,7 +10626,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44470</v>
       </c>
@@ -10642,7 +10646,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44501</v>
       </c>
@@ -10662,7 +10666,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44531</v>
       </c>
@@ -10686,7 +10690,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="47" t="s">
         <v>193</v>
       </c>
@@ -10704,7 +10708,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44562</v>
       </c>
@@ -10724,7 +10728,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44593</v>
       </c>
@@ -10744,7 +10748,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44621</v>
       </c>
@@ -10764,7 +10768,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44652</v>
       </c>
@@ -10784,7 +10788,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44682</v>
       </c>
@@ -10804,7 +10808,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44713</v>
       </c>
@@ -10824,7 +10828,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44743</v>
       </c>
@@ -10844,7 +10848,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44774</v>
       </c>
@@ -10864,7 +10868,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44805</v>
       </c>
@@ -10884,7 +10888,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44835</v>
       </c>
@@ -10904,7 +10908,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44866</v>
       </c>
@@ -10924,7 +10928,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44896</v>
       </c>
@@ -10948,7 +10952,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="47" t="s">
         <v>190</v>
       </c>
@@ -10966,7 +10970,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44927</v>
       </c>
@@ -10986,7 +10990,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44958</v>
       </c>
@@ -11006,7 +11010,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44986</v>
       </c>
@@ -11026,11 +11030,13 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>45017</v>
       </c>
-      <c r="B359" s="20"/>
+      <c r="B359" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
@@ -11042,15 +11048,19 @@
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B360" s="20"/>
+      <c r="K359" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="40"/>
+      <c r="B360" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C360" s="13"/>
-      <c r="D360" s="39"/>
+      <c r="D360" s="39">
+        <v>24</v>
+      </c>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
       <c r="G360" s="13" t="str">
@@ -11060,11 +11070,13 @@
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K360" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11080,8 +11092,10 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="40"/>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="40">
+        <v>45078</v>
+      </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -11096,7 +11110,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11112,7 +11126,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11128,7 +11142,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11144,7 +11158,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11160,7 +11174,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11176,7 +11190,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11192,7 +11206,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11208,7 +11222,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11224,7 +11238,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11240,7 +11254,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11256,21 +11270,37 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="61"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="41"/>
-      <c r="D373" s="42"/>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="40"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39"/>
       <c r="E373" s="9"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="41" t="str">
+      <c r="F373" s="20"/>
+      <c r="G373" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H373" s="42"/>
+      <c r="H373" s="39"/>
       <c r="I373" s="9"/>
-      <c r="J373" s="12"/>
-      <c r="K373" s="15"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="49"/>
+      <c r="B374" s="15"/>
+      <c r="C374" s="41"/>
+      <c r="D374" s="42"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="15"/>
+      <c r="G374" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="42"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="12"/>
+      <c r="K374" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11287,10 +11317,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11313,7 +11343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11321,34 +11351,34 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11377,7 +11407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11397,17 +11427,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11421,14 +11451,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11455,7 +11485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11481,7 +11511,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11507,7 +11537,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11533,7 +11563,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11559,7 +11589,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11585,7 +11615,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11611,7 +11641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11637,7 +11667,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11657,7 +11687,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11677,7 +11707,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11697,7 +11727,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11718,7 +11748,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11739,7 +11769,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11760,7 +11790,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11781,7 +11811,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11802,7 +11832,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11823,7 +11853,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11844,7 +11874,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11865,7 +11895,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11886,7 +11916,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11907,7 +11937,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11928,7 +11958,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11949,7 +11979,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11970,7 +12000,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11991,7 +12021,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12012,7 +12042,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12033,7 +12063,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12054,7 +12084,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12075,7 +12105,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12096,7 +12126,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12117,7 +12147,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12126,7 +12156,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12135,7 +12165,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12144,7 +12174,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12153,7 +12183,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12162,7 +12192,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12171,7 +12201,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12180,7 +12210,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12189,7 +12219,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12198,7 +12228,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12207,7 +12237,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12216,7 +12246,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12225,7 +12255,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12234,7 +12264,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12243,7 +12273,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12252,7 +12282,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12261,7 +12291,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12270,7 +12300,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12279,7 +12309,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12288,7 +12318,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12297,7 +12327,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12306,7 +12336,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12315,7 +12345,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12324,7 +12354,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12333,7 +12363,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12342,7 +12372,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12351,7 +12381,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12360,7 +12390,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12369,7 +12399,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12378,7 +12408,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PARRA, ANABELLE.xlsx
+++ b/REGULAR/OJT/PARRA, ANABELLE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E423463-D89D-41CF-9218-5E2D5D6E2D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
   <si>
     <t>PERIOD</t>
   </si>
@@ -630,7 +631,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1490,7 +1491,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1534,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1598,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1658,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1724,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1787,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1884,7 +1885,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1944,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2009,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2052,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2127,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2313,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2379,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2437,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2503,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2559,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2634,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2677,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2743,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2799,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2897,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2960,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3025,25 +3026,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K374" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K375" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3055,13 +3056,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3070,14 +3071,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3381,7 +3382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3391,7 +3392,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3399,34 +3400,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K374"/>
+  <dimension ref="A2:K375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1515" topLeftCell="A354" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1512" activePane="bottomLeft"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3447,7 +3448,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3465,7 +3466,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3483,7 +3484,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3491,7 +3492,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3504,7 +3505,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3521,7 +3522,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3565,7 +3566,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>195.75</v>
+        <v>193.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3575,12 +3576,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.75</v>
+        <v>133.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3602,7 +3603,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36526</v>
       </c>
@@ -3622,7 +3623,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36557</v>
       </c>
@@ -3642,7 +3643,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36586</v>
       </c>
@@ -3662,7 +3663,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36617</v>
       </c>
@@ -3682,7 +3683,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3742,7 +3743,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>53</v>
@@ -3790,7 +3791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36770</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36800</v>
       </c>
@@ -3836,7 +3837,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36831</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>36718</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3882,7 +3883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -3904,7 +3905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36861</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>56</v>
@@ -3950,7 +3951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36892</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
@@ -4014,7 +4015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36923</v>
       </c>
@@ -4034,7 +4035,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36951</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>36894</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4082,7 +4083,7 @@
         <v>37106</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>57</v>
@@ -4102,7 +4103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -4124,7 +4125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36982</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>37046</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>67</v>
@@ -4172,7 +4173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>57</v>
@@ -4194,7 +4195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37012</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37043</v>
       </c>
@@ -4240,7 +4241,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37073</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37104</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>37050</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -4314,7 +4315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37135</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>54</v>
@@ -4362,7 +4363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37165</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37196</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37226</v>
       </c>
@@ -4432,7 +4433,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>45</v>
       </c>
@@ -4450,7 +4451,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37257</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37288</v>
       </c>
@@ -4496,7 +4497,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37316</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37347</v>
       </c>
@@ -4536,7 +4537,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37377</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37408</v>
       </c>
@@ -4582,7 +4583,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37438</v>
       </c>
@@ -4602,7 +4603,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37469</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>84</v>
@@ -4650,7 +4651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -4670,7 +4671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37500</v>
       </c>
@@ -4690,7 +4691,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37530</v>
       </c>
@@ -4710,7 +4711,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37561</v>
       </c>
@@ -4730,7 +4731,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37591</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>65</v>
@@ -4776,7 +4777,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>52</v>
       </c>
@@ -4794,7 +4795,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37622</v>
       </c>
@@ -4814,7 +4815,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37653</v>
       </c>
@@ -4834,7 +4835,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37681</v>
       </c>
@@ -4854,7 +4855,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37712</v>
       </c>
@@ -4874,7 +4875,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37742</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -4922,7 +4923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -4942,7 +4943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37773</v>
       </c>
@@ -4962,7 +4963,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>37803</v>
       </c>
@@ -4982,7 +4983,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37834</v>
       </c>
@@ -5002,7 +5003,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37865</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>77</v>
@@ -5050,7 +5051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37895</v>
       </c>
@@ -5070,7 +5071,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37926</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>57</v>
@@ -5116,7 +5117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37956</v>
       </c>
@@ -5136,7 +5137,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>51</v>
       </c>
@@ -5154,7 +5155,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37987</v>
       </c>
@@ -5174,7 +5175,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>38018</v>
       </c>
@@ -5194,7 +5195,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38047</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38078</v>
       </c>
@@ -5238,7 +5239,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38108</v>
       </c>
@@ -5262,7 +5263,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>57</v>
@@ -5282,7 +5283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38139</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>57</v>
@@ -5328,7 +5329,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38169</v>
       </c>
@@ -5348,7 +5349,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38200</v>
       </c>
@@ -5368,7 +5369,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38231</v>
       </c>
@@ -5388,7 +5389,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38261</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5436,7 +5437,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5452,7 +5453,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>38292</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5500,7 +5501,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>54</v>
@@ -5522,7 +5523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>38322</v>
       </c>
@@ -5542,7 +5543,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>50</v>
       </c>
@@ -5560,7 +5561,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>38353</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>38384</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>38412</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>38443</v>
       </c>
@@ -5644,7 +5645,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>38473</v>
       </c>
@@ -5664,7 +5665,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>38504</v>
       </c>
@@ -5684,7 +5685,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>38534</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>38565</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>38596</v>
       </c>
@@ -5756,7 +5757,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>38626</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>57</v>
@@ -5802,7 +5803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38657</v>
       </c>
@@ -5822,7 +5823,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38687</v>
       </c>
@@ -5846,7 +5847,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>49</v>
       </c>
@@ -5864,7 +5865,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38718</v>
       </c>
@@ -5884,7 +5885,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>38749</v>
       </c>
@@ -5904,7 +5905,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38777</v>
       </c>
@@ -5924,7 +5925,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>38808</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38838</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38869</v>
       </c>
@@ -6000,7 +6001,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38899</v>
       </c>
@@ -6020,7 +6021,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>38930</v>
       </c>
@@ -6040,7 +6041,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38961</v>
       </c>
@@ -6060,7 +6061,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>38991</v>
       </c>
@@ -6080,7 +6081,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39022</v>
       </c>
@@ -6100,7 +6101,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>39052</v>
       </c>
@@ -6120,7 +6121,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>47</v>
       </c>
@@ -6138,7 +6139,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39083</v>
       </c>
@@ -6158,7 +6159,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>39114</v>
       </c>
@@ -6178,7 +6179,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>39142</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>57</v>
@@ -6224,7 +6225,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>57</v>
@@ -6244,7 +6245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>55</v>
@@ -6266,7 +6267,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>39173</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>39203</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6340,7 +6341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>39234</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>116</v>
@@ -6388,7 +6389,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>39264</v>
       </c>
@@ -6408,7 +6409,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>39295</v>
       </c>
@@ -6428,7 +6429,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>39326</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39356</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>39387</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>108</v>
@@ -6528,7 +6529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>39417</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>67</v>
@@ -6576,7 +6577,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>55</v>
@@ -6598,7 +6599,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>48</v>
       </c>
@@ -6616,7 +6617,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39448</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>39479</v>
       </c>
@@ -6660,7 +6661,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39508</v>
       </c>
@@ -6680,7 +6681,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>39539</v>
       </c>
@@ -6700,7 +6701,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>39569</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>128</v>
@@ -6746,7 +6747,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>55</v>
@@ -6768,7 +6769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39600</v>
       </c>
@@ -6788,7 +6789,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>39630</v>
       </c>
@@ -6808,7 +6809,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39661</v>
       </c>
@@ -6828,7 +6829,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>39692</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>39722</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>39753</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>67</v>
@@ -6928,7 +6929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>39783</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
         <v>46</v>
       </c>
@@ -6972,7 +6973,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>39814</v>
       </c>
@@ -6992,7 +6993,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>39845</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>39873</v>
       </c>
@@ -7038,7 +7039,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>39904</v>
       </c>
@@ -7058,7 +7059,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>39934</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>39965</v>
       </c>
@@ -7104,7 +7105,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>39995</v>
       </c>
@@ -7124,7 +7125,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40026</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40057</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>55</v>
@@ -7198,7 +7199,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>92</v>
@@ -7220,7 +7221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>40087</v>
       </c>
@@ -7240,7 +7241,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>40118</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>40148</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="47" t="s">
         <v>146</v>
       </c>
@@ -7310,7 +7311,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>40179</v>
       </c>
@@ -7330,7 +7331,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>40210</v>
       </c>
@@ -7350,7 +7351,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40238</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>40271</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40269</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>40299</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>40330</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40360</v>
       </c>
@@ -7474,7 +7475,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>40391</v>
       </c>
@@ -7494,7 +7495,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>40422</v>
       </c>
@@ -7514,7 +7515,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>40452</v>
       </c>
@@ -7534,7 +7535,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40483</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>40513</v>
       </c>
@@ -7584,7 +7585,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="47" t="s">
         <v>152</v>
       </c>
@@ -7602,7 +7603,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40544</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>40575</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>40603</v>
       </c>
@@ -7674,7 +7675,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>40634</v>
       </c>
@@ -7694,7 +7695,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>40664</v>
       </c>
@@ -7714,7 +7715,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>40695</v>
       </c>
@@ -7734,7 +7735,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40725</v>
       </c>
@@ -7754,7 +7755,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>40756</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>112</v>
@@ -7800,7 +7801,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>40787</v>
       </c>
@@ -7820,7 +7821,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>40817</v>
       </c>
@@ -7840,7 +7841,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>40848</v>
       </c>
@@ -7860,7 +7861,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>40878</v>
       </c>
@@ -7880,7 +7881,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="47" t="s">
         <v>151</v>
       </c>
@@ -7898,7 +7899,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>40909</v>
       </c>
@@ -7918,7 +7919,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>40940</v>
       </c>
@@ -7938,7 +7939,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>40969</v>
       </c>
@@ -7958,7 +7959,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>41000</v>
       </c>
@@ -7978,7 +7979,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>41030</v>
       </c>
@@ -7998,7 +7999,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>41061</v>
       </c>
@@ -8018,7 +8019,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>41091</v>
       </c>
@@ -8038,7 +8039,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>41122</v>
       </c>
@@ -8058,7 +8059,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>41153</v>
       </c>
@@ -8082,7 +8083,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>41183</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>81</v>
@@ -8130,7 +8131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>41214</v>
       </c>
@@ -8150,7 +8151,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>41244</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>92</v>
@@ -8198,13 +8199,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="B221" s="20"/>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="40"/>
+      <c r="B221" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C221" s="13"/>
-      <c r="D221" s="39"/>
+      <c r="D221" s="39">
+        <v>5</v>
+      </c>
       <c r="E221" s="9"/>
       <c r="F221" s="20"/>
       <c r="G221" s="13" t="str">
@@ -8216,121 +8219,117 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="40">
-        <v>41275</v>
-      </c>
-      <c r="B222" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C222" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B222" s="20"/>
+      <c r="C222" s="13"/>
       <c r="D222" s="39"/>
       <c r="E222" s="9"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G222" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H222" s="39"/>
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
-      <c r="K222" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
+      <c r="K222" s="20"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="40">
+        <v>41275</v>
+      </c>
       <c r="B223" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C223" s="13"/>
+      <c r="C223" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D223" s="39"/>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G223" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
       <c r="K223" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="40">
-        <v>41306</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C224" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C224" s="13"/>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G224" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H224" s="39"/>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
       <c r="K224" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="40">
+        <v>41306</v>
+      </c>
       <c r="B225" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C225" s="13"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="40">
-        <v>41334</v>
-      </c>
-      <c r="B226" s="20"/>
-      <c r="C226" s="13">
-        <v>1.25</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="40"/>
+      <c r="B226" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C226" s="13"/>
       <c r="D226" s="39"/>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G226" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H226" s="39"/>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="20"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K226" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <v>41365</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>176</v>
-      </c>
+        <v>41334</v>
+      </c>
+      <c r="B227" s="20"/>
       <c r="C227" s="13">
         <v>1.25</v>
       </c>
@@ -8341,64 +8340,64 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H227" s="39">
-        <v>9</v>
-      </c>
+      <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="40">
+        <v>41365</v>
+      </c>
       <c r="B228" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C228" s="13"/>
+        <v>176</v>
+      </c>
+      <c r="C228" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D228" s="39"/>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G228" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H228" s="39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="40">
-        <v>41395</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="13">
-        <v>1.25</v>
-      </c>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="40"/>
+      <c r="B229" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C229" s="13"/>
       <c r="D229" s="39"/>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H229" s="39"/>
+      <c r="G229" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H229" s="39">
+        <v>3</v>
+      </c>
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="20"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K229" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <v>41426</v>
-      </c>
-      <c r="B230" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>41395</v>
+      </c>
+      <c r="B230" s="20"/>
       <c r="C230" s="13">
         <v>1.25</v>
       </c>
@@ -8409,20 +8408,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H230" s="39">
-        <v>2</v>
-      </c>
+      <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="20"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <v>41456</v>
-      </c>
-      <c r="B231" s="20"/>
+        <v>41426</v>
+      </c>
+      <c r="B231" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C231" s="13">
         <v>1.25</v>
       </c>
@@ -8433,14 +8430,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H231" s="39"/>
+      <c r="H231" s="39">
+        <v>2</v>
+      </c>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="20"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K231" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13">
@@ -8458,9 +8459,9 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <v>41518</v>
+        <v>41487</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13">
@@ -8478,9 +8479,9 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
-        <v>41548</v>
+        <v>41518</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8498,13 +8499,11 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
-        <v>41579</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>41548</v>
+      </c>
+      <c r="B235" s="20"/>
       <c r="C235" s="13">
         <v>1.25</v>
       </c>
@@ -8515,20 +8514,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H235" s="39">
-        <v>4</v>
-      </c>
+      <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
-      <c r="K235" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
-        <v>41609</v>
-      </c>
-      <c r="B236" s="20"/>
+        <v>41579</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
@@ -8539,52 +8536,56 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H236" s="39"/>
+      <c r="H236" s="39">
+        <v>4</v>
+      </c>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="47" t="s">
-        <v>149</v>
+      <c r="K236" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40">
+        <v>41609</v>
       </c>
       <c r="B237" s="20"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G237" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
-        <v>41640</v>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C238" s="13"/>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
-        <v>41671</v>
+        <v>41640</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13">
@@ -8602,9 +8603,9 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8622,9 +8623,9 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <v>41730</v>
+        <v>41699</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8642,9 +8643,9 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <v>41760</v>
+        <v>41730</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13">
@@ -8662,9 +8663,9 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13">
@@ -8682,9 +8683,9 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8702,13 +8703,11 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <v>41852</v>
-      </c>
-      <c r="B245" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>41821</v>
+      </c>
+      <c r="B245" s="20"/>
       <c r="C245" s="13">
         <v>1.25</v>
       </c>
@@ -8719,58 +8718,60 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H245" s="39">
-        <v>4</v>
-      </c>
+      <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
+      <c r="K245" s="20"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40">
+        <v>41852</v>
+      </c>
       <c r="B246" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="39">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H246" s="39"/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H246" s="39">
+        <v>4</v>
+      </c>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="40">
-        <v>41883</v>
-      </c>
-      <c r="B247" s="20"/>
-      <c r="C247" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D247" s="39"/>
+      <c r="K246" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40"/>
+      <c r="B247" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C247" s="13"/>
+      <c r="D247" s="39">
+        <v>5</v>
+      </c>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8788,9 +8789,9 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8808,9 +8809,9 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8828,57 +8829,57 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="47" t="s">
-        <v>148</v>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40">
+        <v>41974</v>
       </c>
       <c r="B251" s="20"/>
-      <c r="C251" s="13"/>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D251" s="39"/>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="40">
-        <v>42005</v>
-      </c>
-      <c r="B252" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C252" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D252" s="39">
-        <v>5</v>
-      </c>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H252" s="39"/>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <v>42036</v>
-      </c>
-      <c r="B253" s="20"/>
+        <v>42005</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C253" s="13">
         <v>1.25</v>
       </c>
-      <c r="D253" s="39"/>
+      <c r="D253" s="39">
+        <v>5</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
       <c r="G253" s="13">
@@ -8890,9 +8891,9 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -8910,9 +8911,9 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8930,9 +8931,9 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
@@ -8950,9 +8951,9 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13">
@@ -8970,9 +8971,9 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13">
@@ -8990,9 +8991,9 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9010,9 +9011,9 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -9030,9 +9031,9 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13">
@@ -9050,9 +9051,9 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13">
@@ -9070,9 +9071,9 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -9090,57 +9091,57 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="47" t="s">
-        <v>147</v>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="40">
+        <v>42339</v>
       </c>
       <c r="B264" s="20"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G264" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H264" s="39"/>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="40">
-        <v>42370</v>
-      </c>
-      <c r="B265" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C265" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D265" s="39">
-        <v>5</v>
-      </c>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B265" s="20"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
-        <v>42401</v>
-      </c>
-      <c r="B266" s="20"/>
+        <v>42370</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C266" s="13">
         <v>1.25</v>
       </c>
-      <c r="D266" s="39"/>
+      <c r="D266" s="39">
+        <v>5</v>
+      </c>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
       <c r="G266" s="13">
@@ -9152,9 +9153,9 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9172,9 +9173,9 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9192,9 +9193,9 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
@@ -9212,9 +9213,9 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -9232,9 +9233,9 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13">
@@ -9252,9 +9253,9 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13">
@@ -9272,9 +9273,9 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -9292,9 +9293,9 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -9312,9 +9313,9 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
@@ -9332,77 +9333,77 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
+        <v>42675</v>
+      </c>
+      <c r="B276" s="20"/>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D276" s="39"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H276" s="39"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="20"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="40">
         <v>42705</v>
       </c>
-      <c r="B276" s="15"/>
-      <c r="C276" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D276" s="42"/>
-      <c r="E276" s="9"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H276" s="42"/>
-      <c r="I276" s="9"/>
-      <c r="J276" s="12"/>
-      <c r="K276" s="15"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="47" t="s">
+      <c r="B277" s="15"/>
+      <c r="C277" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D277" s="42"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H277" s="42"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="12"/>
+      <c r="K277" s="15"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B277" s="20"/>
-      <c r="C277" s="13"/>
-      <c r="D277" s="39"/>
-      <c r="E277" s="9"/>
-      <c r="F277" s="20"/>
-      <c r="G277" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H277" s="39"/>
-      <c r="I277" s="9"/>
-      <c r="J277" s="11"/>
-      <c r="K277" s="20"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="40">
-        <v>42736</v>
-      </c>
-      <c r="B278" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C278" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D278" s="39">
-        <v>5</v>
-      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="39"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G278" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
-        <v>42767</v>
-      </c>
-      <c r="B279" s="20"/>
+        <v>42736</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C279" s="13">
         <v>1.25</v>
       </c>
-      <c r="D279" s="39"/>
+      <c r="D279" s="39">
+        <v>5</v>
+      </c>
       <c r="E279" s="9"/>
       <c r="F279" s="20"/>
       <c r="G279" s="13">
@@ -9414,9 +9415,9 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13">
@@ -9434,9 +9435,9 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9454,9 +9455,9 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13">
@@ -9474,9 +9475,9 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9494,9 +9495,9 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13">
@@ -9514,9 +9515,9 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9534,9 +9535,9 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13">
@@ -9554,9 +9555,9 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13">
@@ -9574,9 +9575,9 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9594,9 +9595,9 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13">
@@ -9614,55 +9615,51 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="47" t="s">
-        <v>182</v>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="40">
+        <v>43070</v>
       </c>
       <c r="B290" s="20"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="40">
-        <v>43101</v>
-      </c>
-      <c r="B291" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C291" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="13"/>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H291" s="39">
-        <v>5</v>
-      </c>
+      <c r="G291" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H291" s="39"/>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="20"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <v>43132</v>
-      </c>
-      <c r="B292" s="20"/>
+        <v>43101</v>
+      </c>
+      <c r="B292" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C292" s="13">
         <v>1.25</v>
       </c>
@@ -9673,14 +9670,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H292" s="39"/>
+      <c r="H292" s="39">
+        <v>5</v>
+      </c>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
-      <c r="K292" s="20"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -9698,9 +9699,9 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13">
@@ -9718,9 +9719,9 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -9738,13 +9739,11 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B296" s="20" t="s">
-        <v>67</v>
-      </c>
+        <v>43221</v>
+      </c>
+      <c r="B296" s="20"/>
       <c r="C296" s="13">
         <v>1.25</v>
       </c>
@@ -9755,20 +9754,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H296" s="39">
-        <v>4</v>
-      </c>
+      <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
-        <v>43282</v>
-      </c>
-      <c r="B297" s="20"/>
+        <v>43252</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C297" s="13">
         <v>1.25</v>
       </c>
@@ -9779,14 +9776,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H297" s="39"/>
+      <c r="H297" s="39">
+        <v>4</v>
+      </c>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="20"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K297" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13">
@@ -9804,9 +9805,9 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9824,19 +9825,15 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <v>43374</v>
-      </c>
-      <c r="B300" s="20" t="s">
-        <v>116</v>
-      </c>
+        <v>43344</v>
+      </c>
+      <c r="B300" s="20"/>
       <c r="C300" s="13">
         <v>1.25</v>
       </c>
-      <c r="D300" s="39">
-        <v>5</v>
-      </c>
+      <c r="D300" s="39"/>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
       <c r="G300" s="13">
@@ -9846,41 +9843,41 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B301" s="20" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C301" s="13">
         <v>1.25</v>
       </c>
-      <c r="D301" s="39"/>
+      <c r="D301" s="39">
+        <v>5</v>
+      </c>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
       <c r="G301" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H301" s="39">
-        <v>8</v>
-      </c>
+      <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B302" s="20"/>
+        <v>43405</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C302" s="13">
         <v>1.25</v>
       </c>
@@ -9891,60 +9888,60 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H302" s="39"/>
+      <c r="H302" s="39">
+        <v>8</v>
+      </c>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="20"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="47" t="s">
-        <v>187</v>
+      <c r="K302" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>43435</v>
       </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B304" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C304" s="13">
-        <v>1.25</v>
-      </c>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13"/>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H304" s="39">
-        <v>5</v>
-      </c>
+      <c r="G304" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H304" s="39"/>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
-      <c r="K304" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
-        <v>43497</v>
-      </c>
-      <c r="B305" s="20"/>
+        <v>43466</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C305" s="13">
         <v>1.25</v>
       </c>
@@ -9955,14 +9952,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H305" s="39"/>
+      <c r="H305" s="39">
+        <v>5</v>
+      </c>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
-      <c r="K305" s="20"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -9980,9 +9981,9 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13">
@@ -10000,9 +10001,9 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -10020,9 +10021,9 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10040,19 +10041,15 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <v>43647</v>
-      </c>
-      <c r="B310" s="20" t="s">
-        <v>116</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="B310" s="20"/>
       <c r="C310" s="13">
         <v>1.25</v>
       </c>
-      <c r="D310" s="39">
-        <v>5</v>
-      </c>
+      <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
       <c r="G310" s="13">
@@ -10062,19 +10059,21 @@
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K310" s="20"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
-        <v>43678</v>
-      </c>
-      <c r="B311" s="20"/>
+        <v>43647</v>
+      </c>
+      <c r="B311" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C311" s="13">
         <v>1.25</v>
       </c>
-      <c r="D311" s="39"/>
+      <c r="D311" s="39">
+        <v>5</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
       <c r="G311" s="13">
@@ -10084,11 +10083,13 @@
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="20"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K311" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -10106,9 +10107,9 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13">
@@ -10126,9 +10127,9 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10146,9 +10147,9 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13">
@@ -10166,47 +10167,47 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="47" t="s">
-        <v>191</v>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="40">
+        <v>43800</v>
       </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40">
-        <v>43831</v>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C317" s="13"/>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G317" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13">
@@ -10224,9 +10225,9 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13">
@@ -10244,9 +10245,9 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13">
@@ -10264,9 +10265,9 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10284,9 +10285,9 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13">
@@ -10304,9 +10305,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13">
@@ -10324,9 +10325,9 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13">
@@ -10344,9 +10345,9 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10364,9 +10365,9 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13">
@@ -10384,9 +10385,9 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -10404,19 +10405,15 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B328" s="20" t="s">
-        <v>112</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B328" s="20"/>
       <c r="C328" s="13">
         <v>1.25</v>
       </c>
-      <c r="D328" s="39">
-        <v>5</v>
-      </c>
+      <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
       <c r="G328" s="13">
@@ -10428,47 +10425,51 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B329" s="20"/>
-      <c r="C329" s="13"/>
-      <c r="D329" s="39"/>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D329" s="39">
+        <v>5</v>
+      </c>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="40">
-        <v>44197</v>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="B330" s="20"/>
-      <c r="C330" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C330" s="13"/>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10486,9 +10487,9 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10506,9 +10507,9 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13">
@@ -10526,9 +10527,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13">
@@ -10546,9 +10547,9 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13">
@@ -10566,9 +10567,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -10586,9 +10587,9 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -10606,9 +10607,9 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -10626,9 +10627,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13">
@@ -10646,9 +10647,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10666,19 +10667,15 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B341" s="20" t="s">
-        <v>112</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B341" s="20"/>
       <c r="C341" s="13">
         <v>1.25</v>
       </c>
-      <c r="D341" s="39">
-        <v>5</v>
-      </c>
+      <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
       <c r="G341" s="13">
@@ -10690,47 +10687,51 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="39"/>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="39">
+        <v>5</v>
+      </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="40">
-        <v>44562</v>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C343" s="13"/>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13">
@@ -10748,9 +10749,9 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -10768,9 +10769,9 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -10788,9 +10789,9 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13">
@@ -10808,9 +10809,9 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -10828,9 +10829,9 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -10848,9 +10849,9 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13">
@@ -10868,9 +10869,9 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -10888,9 +10889,9 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13">
@@ -10908,9 +10909,9 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -10928,19 +10929,15 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B354" s="20" t="s">
-        <v>112</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B354" s="20"/>
       <c r="C354" s="13">
         <v>1.25</v>
       </c>
-      <c r="D354" s="39">
-        <v>5</v>
-      </c>
+      <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
       <c r="G354" s="13">
@@ -10952,47 +10949,51 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="39"/>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39">
+        <v>5</v>
+      </c>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="40">
-        <v>44927</v>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C356" s="13"/>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -11010,9 +11011,9 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11030,57 +11031,59 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B359" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C359" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>45017</v>
+      </c>
       <c r="B360" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C360" s="13"/>
-      <c r="D360" s="39">
-        <v>24</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B361" s="20"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40"/>
+      <c r="B361" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="C361" s="13"/>
-      <c r="D361" s="39"/>
+      <c r="D361" s="39">
+        <v>24</v>
+      </c>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
       <c r="G361" s="13" t="str">
@@ -11090,28 +11093,34 @@
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K361" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40"/>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40">
+        <v>45078</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -11126,7 +11135,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11142,7 +11151,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11158,7 +11167,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11174,7 +11183,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11190,7 +11199,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11206,7 +11215,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11222,7 +11231,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11238,7 +11247,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11254,7 +11263,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11270,7 +11279,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11286,21 +11295,37 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="49"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="41"/>
-      <c r="D374" s="42"/>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="40"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39"/>
       <c r="E374" s="9"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="41" t="str">
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H374" s="42"/>
+      <c r="H374" s="39"/>
       <c r="I374" s="9"/>
-      <c r="J374" s="12"/>
-      <c r="K374" s="15"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="49"/>
+      <c r="B375" s="15"/>
+      <c r="C375" s="41"/>
+      <c r="D375" s="42"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="15"/>
+      <c r="G375" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="42"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="12"/>
+      <c r="K375" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11317,10 +11342,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11343,7 +11368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11351,21 +11376,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -11378,7 +11403,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11407,7 +11432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11427,17 +11452,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11458,7 +11483,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11485,7 +11510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11511,7 +11536,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11537,7 +11562,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11563,7 +11588,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11589,7 +11614,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11615,7 +11640,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11641,7 +11666,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11667,7 +11692,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11687,7 +11712,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11707,7 +11732,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11727,7 +11752,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11748,7 +11773,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11769,7 +11794,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11790,7 +11815,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11811,7 +11836,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11832,7 +11857,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11853,7 +11878,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11874,7 +11899,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11895,7 +11920,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11916,7 +11941,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11937,7 +11962,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11958,7 +11983,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11979,7 +12004,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12000,7 +12025,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12021,7 +12046,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12042,7 +12067,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12063,7 +12088,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12084,7 +12109,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12105,7 +12130,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12126,7 +12151,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12147,7 +12172,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12156,7 +12181,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12165,7 +12190,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12174,7 +12199,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12183,7 +12208,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12192,7 +12217,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12201,7 +12226,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12210,7 +12235,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12219,7 +12244,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12228,7 +12253,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12237,7 +12262,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12246,7 +12271,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12255,7 +12280,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12264,7 +12289,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12273,7 +12298,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12282,7 +12307,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12291,7 +12316,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12300,7 +12325,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12309,7 +12334,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12318,7 +12343,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12327,7 +12352,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12336,7 +12361,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12345,7 +12370,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12354,7 +12379,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12363,7 +12388,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12372,7 +12397,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12381,7 +12406,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12390,7 +12415,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12399,7 +12424,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12408,7 +12433,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/PARRA, ANABELLE.xlsx
+++ b/REGULAR/OJT/PARRA, ANABELLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E423463-D89D-41CF-9218-5E2D5D6E2D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490FDEF-6D42-4F10-A85B-340BFA00952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>4/27-5/31/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3406,10 +3409,10 @@
   </sheetPr>
   <dimension ref="A2:K375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1512" activePane="bottomLeft"/>
-      <selection activeCell="J3" sqref="J3:K3"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1512" topLeftCell="A355"/>
+      <selection activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11372,8 +11375,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11463,6 +11466,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11484,6 +11490,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>326.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/PARRA, ANABELLE.xlsx
+++ b/REGULAR/OJT/PARRA, ANABELLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490FDEF-6D42-4F10-A85B-340BFA00952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C6432-078C-4EA5-BC45-45FCC99A2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
   <si>
     <t>PERIOD</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
   </si>
 </sst>
 </file>
@@ -3409,10 +3415,10 @@
   </sheetPr>
   <dimension ref="A2:K375"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1512" topLeftCell="A355"/>
-      <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1512" topLeftCell="A349"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3455,7 +3461,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>198</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3473,7 +3481,9 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>199</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
@@ -10996,7 +11006,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -11016,7 +11026,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11036,7 +11046,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -11056,7 +11066,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B360" s="20" t="s">
         <v>128</v>
@@ -11102,7 +11112,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11121,9 +11131,7 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -11375,7 +11383,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
